--- a/biology/Histoire de la zoologie et de la botanique/François_Joseph_Derouet/François_Joseph_Derouet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/François_Joseph_Derouet/François_Joseph_Derouet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Joseph_Derouet</t>
+          <t>François_Joseph_Derouet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Joseph Derouet[N 1] (né à Tours le 4 décembre 1773 et mort dans la même ville le 20 novembre 1860), dit Derouet-Picault, est un militaire, polytechnicien, homme politique et botaniste tourangeau.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Joseph_Derouet</t>
+          <t>François_Joseph_Derouet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Une famille d'architectes
-François Joseph Derouet, né à Tours le 4 décembre 1773, est le fils de Marie-Josephe-Flore de Granolach et de François Derouet (1738-1811)[4], né et mort à Tours, qui avait succédé à son propre père en qualité d'architecte-entrepreneur des ouvrages du Roi. Après la Révolution, François est également capitaine du Génie, premier adjoint au maire de Tours et siège au Conseil général d'Indre-et-Loire[4] dès la création de celui-ci. En 1791, à la suite de la suppression des ordres religieux et de la liquidation de leurs biens, il acquiert la Ferme de Meslay[2].
-François Derouet est l'architecte de la transformation du couvent de la Visitation en hôtel de la préfecture de 1804 à 1811[5]. Il ajoute à la façade sud, donnant sur le jardin, un péristyle néoclassique, à fronton triangulaire, dans le style des bâtiments officiels de son époque. En 1805-1806, il construit dans l'avant-cour de la préfecture, à l'emplacement de l'église des visitandines rasée en 1803, un petit bâtiment annexe, également néo-classique, avec un péristyle à quatre colonnes doriques sous un fronton triangulaire[6].
-Polytechnicien, notable et botaniste
-François Joseph Derouet et son frère Frédéric (1779-1861) furent membres du corps du génie et prirent part aux guerres de la Révolution et de l’Empire. Selon son biographe Tourlet, François Joseph entre à l’École polytechnique[N 2] et en sort lieutenant du génie le 1er août 1793[4]. Il est capitaine le 26 frimaire an II[4]. En 1806, alors qu'il est en garnison à Versailles, en tant que capitaine dans le corps impérial du génie des armées de l’empire français, il se marie à Tours avec Claire Picault (1775-1855)[4],[8],[9]. Il quitte ensuite l’armée et devient directeur des contributions indirectes à Rodez, puis revient en Touraine, où il meurt le 20 novembre 1860 à Tours[4],[8].
-Botaniste, membre de la Société d'agriculture, sciences, arts et belles-lettres du département d'Indre-et-Loire[10], maire de Rochecorbon[N 3], François Joseph habitait, avec son frère Frédéric, la propriété du Rosnay à Rochecorbon, qu'il avait acquise en 1817[11],[12]. Retraités de l’armée, ils se consacrèrent à l’agriculture et s'intéressent notamment aux engrais verts, préconisant l'enfouissement du trèfle[13]. Frédéric, ancien commandant du génie, épousa la fille de Jean Prudent Bruley, président du Conseil général, et fut lui-même conseiller général du canton de Vouvray[14]. Son fils, prénommé également Frédéric (1811-1875)[14] et lui-même botaniste, hérita de l’herbier de François Joseph.
-François Joseph Derouet, surnommé Derouet-Picault ou Derouet l'aîné pour le distinguer de son frère[4], a beaucoup exploré les environs de Tours et de Vouvray pour alimenter son herbier[12].
+          <t>Une famille d'architectes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Joseph Derouet, né à Tours le 4 décembre 1773, est le fils de Marie-Josephe-Flore de Granolach et de François Derouet (1738-1811), né et mort à Tours, qui avait succédé à son propre père en qualité d'architecte-entrepreneur des ouvrages du Roi. Après la Révolution, François est également capitaine du Génie, premier adjoint au maire de Tours et siège au Conseil général d'Indre-et-Loire dès la création de celui-ci. En 1791, à la suite de la suppression des ordres religieux et de la liquidation de leurs biens, il acquiert la Ferme de Meslay.
+François Derouet est l'architecte de la transformation du couvent de la Visitation en hôtel de la préfecture de 1804 à 1811. Il ajoute à la façade sud, donnant sur le jardin, un péristyle néoclassique, à fronton triangulaire, dans le style des bâtiments officiels de son époque. En 1805-1806, il construit dans l'avant-cour de la préfecture, à l'emplacement de l'église des visitandines rasée en 1803, un petit bâtiment annexe, également néo-classique, avec un péristyle à quatre colonnes doriques sous un fronton triangulaire.
 </t>
         </is>
       </c>
@@ -530,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Joseph_Derouet</t>
+          <t>François_Joseph_Derouet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,13 +558,54 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Polytechnicien, notable et botaniste</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Joseph Derouet et son frère Frédéric (1779-1861) furent membres du corps du génie et prirent part aux guerres de la Révolution et de l’Empire. Selon son biographe Tourlet, François Joseph entre à l’École polytechnique[N 2] et en sort lieutenant du génie le 1er août 1793. Il est capitaine le 26 frimaire an II. En 1806, alors qu'il est en garnison à Versailles, en tant que capitaine dans le corps impérial du génie des armées de l’empire français, il se marie à Tours avec Claire Picault (1775-1855). Il quitte ensuite l’armée et devient directeur des contributions indirectes à Rodez, puis revient en Touraine, où il meurt le 20 novembre 1860 à Tours,.
+Botaniste, membre de la Société d'agriculture, sciences, arts et belles-lettres du département d'Indre-et-Loire, maire de Rochecorbon[N 3], François Joseph habitait, avec son frère Frédéric, la propriété du Rosnay à Rochecorbon, qu'il avait acquise en 1817,. Retraités de l’armée, ils se consacrèrent à l’agriculture et s'intéressent notamment aux engrais verts, préconisant l'enfouissement du trèfle. Frédéric, ancien commandant du génie, épousa la fille de Jean Prudent Bruley, président du Conseil général, et fut lui-même conseiller général du canton de Vouvray. Son fils, prénommé également Frédéric (1811-1875) et lui-même botaniste, hérita de l’herbier de François Joseph.
+François Joseph Derouet, surnommé Derouet-Picault ou Derouet l'aîné pour le distinguer de son frère, a beaucoup exploré les environs de Tours et de Vouvray pour alimenter son herbier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>François_Joseph_Derouet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Joseph_Derouet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Joseph Derouet est co-auteur, avec Félix Dujardin, Jean Bernard Toussaint Jacquemin-Bellisle et Pierre-Médard Diard, de la première flore de Touraine, la Flore complète de l'Indre publiée à Tours en 1833[15],[16].
-L'herbier Derouet contient des plantes datant de 1761 à 1860. Légué par Frédéric Derouet (le neveu de François Joseph Derouet) à la ville de Tours[17], il est en partie conservé à l'Université de Tours, avec environ 6000 planches, à la bibliothèque du Campus de Grandmont[14].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Joseph Derouet est co-auteur, avec Félix Dujardin, Jean Bernard Toussaint Jacquemin-Bellisle et Pierre-Médard Diard, de la première flore de Touraine, la Flore complète de l'Indre publiée à Tours en 1833,.
+L'herbier Derouet contient des plantes datant de 1761 à 1860. Légué par Frédéric Derouet (le neveu de François Joseph Derouet) à la ville de Tours, il est en partie conservé à l'Université de Tours, avec environ 6000 planches, à la bibliothèque du Campus de Grandmont.
 </t>
         </is>
       </c>
